--- a/M3_50000.xlsx
+++ b/M3_50000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,2315 +434,2507 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>$\beta$</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Mean inventory per demand unit</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Mean inventory</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>FR</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Mean cost</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Mean cost per demand unit</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Rank costs</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Rank inventory</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B2" t="n">
         <v>0.95</v>
       </c>
-      <c r="B2" t="n">
-        <v>50000</v>
-      </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.0001657408570688941</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.7497009065987873</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.9501069391796714</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>209383.1642525307</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>42.78460258999915</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>2.691176470588236</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>3.992647058823529</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B3" t="n">
         <v>0.95</v>
       </c>
-      <c r="B3" t="n">
-        <v>50000</v>
-      </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.0003468511387697608</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1.438097100374086</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.9494417271700103</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>237702.2868781858</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>47.97678658537381</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>5.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>4.088235294117647</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B4" t="n">
         <v>0.95</v>
       </c>
-      <c r="B4" t="n">
-        <v>50000</v>
-      </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8.962519427958646e-06</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.04095871378577101</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.9522198404497613</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>236556.0209387756</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>49.99825879558296</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>5.073529411764706</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>3.948529411764706</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B5" t="n">
         <v>0.95</v>
       </c>
-      <c r="B5" t="n">
-        <v>50000</v>
-      </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>50000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>4a</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.0001545759532247101</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.5845051491961354</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.9495046208143163</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>245597.2231545786</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>48.28370675274093</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>5.382352941176471</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>3.977941176470588</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B6" t="n">
         <v>0.95</v>
       </c>
-      <c r="B6" t="n">
-        <v>50000</v>
-      </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.0001847098217387878</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.8085211586316272</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.9497605594408287</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>216032.3792313775</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>44.38567532965152</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>4.191176470588236</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>4.007352941176471</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B7" t="n">
         <v>0.95</v>
       </c>
-      <c r="B7" t="n">
-        <v>50000</v>
-      </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
         <v>6</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.0002033378802295408</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.910261385230227</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.9501113704287869</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>210995.7687281594</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>43.18030499645737</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>2.897058823529412</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>4.022058823529412</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B8" t="n">
         <v>0.95</v>
       </c>
-      <c r="B8" t="n">
-        <v>50000</v>
-      </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
         <v>7</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>9.004094164160945e-05</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.4114871033021552</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.9501977199865427</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>201703.5405334564</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>40.57817436457491</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>2.264705882352941</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>3.963235294117647</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B9" t="n">
         <v>0.95</v>
       </c>
-      <c r="B9" t="n">
-        <v>50000</v>
-      </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.001127911309697805</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>8.938989740319665</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0.9505557288206823</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>612337.8193020299</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>64.93550868039179</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>2.632352941176471</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>4.066176470588236</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B10" t="n">
         <v>0.95</v>
       </c>
-      <c r="B10" t="n">
-        <v>50000</v>
-      </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.001463487034010029</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>11.72070137350991</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>0.949014561419566</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>690300.0267767537</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>72.22117549531752</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>5.308823529411764</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>4.404411764705882</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B11" t="n">
         <v>0.95</v>
       </c>
-      <c r="B11" t="n">
-        <v>50000</v>
-      </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.0005279083280754779</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>3.809248292981271</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>0.9537617181378387</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>691190.172479981</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>73.67601663568307</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>4.544117647058823</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>3.889705882352941</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B12" t="n">
         <v>0.95</v>
       </c>
-      <c r="B12" t="n">
-        <v>50000</v>
-      </c>
       <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="inlineStr">
+        <v>50000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>4a</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.0003679127813289731</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>2.552963124405685</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>0.9413555717631636</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>875329.6258830344</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>83.9884799437669</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>5.926470588235294</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>3.683823529411764</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B13" t="n">
         <v>0.95</v>
       </c>
-      <c r="B13" t="n">
-        <v>50000</v>
-      </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.001310874802549526</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>10.27528653611233</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.9496417605033339</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>635625.2920411027</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>67.59748123258098</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>4.264705882352941</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>4.110294117647059</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B14" t="n">
         <v>0.95</v>
       </c>
-      <c r="B14" t="n">
-        <v>50000</v>
-      </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.001269679222953629</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>10.12528736515242</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>0.9504904039969003</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>618977.1625826998</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>65.86869556597757</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>2.941176470588236</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>4.051470588235294</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B15" t="n">
         <v>0.95</v>
       </c>
-      <c r="B15" t="n">
-        <v>50000</v>
-      </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.0007595676512040202</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>5.801029157303996</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>0.94917867844521</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>575641.7287652332</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>59.50237174378025</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>2.382352941176471</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>3.794117647058823</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B16" t="n">
         <v>0.975</v>
       </c>
-      <c r="B16" t="n">
-        <v>50000</v>
-      </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.001270407790611177</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>4.751241342299075</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>0.9751896972384273</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>205443.2368171107</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>42.10169917370229</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>2.779411764705882</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>4.007352941176471</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B17" t="n">
         <v>0.975</v>
       </c>
-      <c r="B17" t="n">
-        <v>50000</v>
-      </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.001754880001158132</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>6.845275155604956</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>0.9744794706162556</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>222854.673816455</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>44.70426730010323</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>5.161764705882353</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>4.264705882352941</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B18" t="n">
         <v>0.975</v>
       </c>
-      <c r="B18" t="n">
-        <v>50000</v>
-      </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
         <v>3</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.0007415163580407072</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>2.877292615547383</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>0.9768132924626471</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>224775.2919032446</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>46.46130037640035</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>4.985294117647059</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>4.058823529411764</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B19" t="n">
         <v>0.975</v>
       </c>
-      <c r="B19" t="n">
-        <v>50000</v>
-      </c>
       <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
+        <v>50000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>4a</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.001416406761721293</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>5.166027840197754</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>0.9745356604059794</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>241196.0260658789</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>47.14567998734486</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>5.647058823529412</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>3.919117647058823</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B20" t="n">
         <v>0.975</v>
       </c>
-      <c r="B20" t="n">
-        <v>50000</v>
-      </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
         <v>5</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.001390759652185241</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>5.148810420740453</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>0.9747793851550108</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>208669.7857163331</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>42.718928682638</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>4.220588235294118</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B21" t="n">
         <v>0.975</v>
       </c>
-      <c r="B21" t="n">
-        <v>50000</v>
-      </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
         <v>6</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.001677025472761342</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>6.324123338248666</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>0.9751423926261736</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>208471.566377013</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>43.08125704024861</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>2.955882352941177</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>4.029411764705882</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B22" t="n">
         <v>0.975</v>
       </c>
-      <c r="B22" t="n">
-        <v>50000</v>
-      </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
         <v>7</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.0009918121101779153</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>3.696560759854373</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>0.9751864277712606</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>199151.8949684805</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>40.08503169678659</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>2.25</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>3.720588235294118</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B23" t="n">
         <v>0.975</v>
       </c>
-      <c r="B23" t="n">
-        <v>50000</v>
-      </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.005117313432827446</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>40.74847384061052</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>0.9760510623804</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>574832.9645338034</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>61.3032198858525</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>3.058823529411764</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>4.220588235294118</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B24" t="n">
         <v>0.975</v>
       </c>
-      <c r="B24" t="n">
-        <v>50000</v>
-      </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
       </c>
       <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.005436248391973115</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>44.22430446831354</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>0.9741030826483794</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>628004.4592239339</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>65.5673063041713</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>4.926470588235294</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>4.691176470588236</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B25" t="n">
         <v>0.975</v>
       </c>
-      <c r="B25" t="n">
-        <v>50000</v>
-      </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
         <v>3</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>0.004772263138522882</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>37.86848416285427</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>0.9772967256987075</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>661867.1685660965</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>69.45283460156776</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>4.352941176470588</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>4.338235294117647</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B26" t="n">
         <v>0.975</v>
       </c>
-      <c r="B26" t="n">
-        <v>50000</v>
-      </c>
       <c r="C26" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" t="inlineStr">
+        <v>50000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>4a</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>0.001321586894008473</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>10.04495621464721</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>0.9666747249872657</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>849211.056190305</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>81.25823751195135</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>6.088235294117647</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>3.117647058823529</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B27" t="n">
         <v>0.975</v>
       </c>
-      <c r="B27" t="n">
-        <v>50000</v>
-      </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
         <v>5</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>0.005218907918780422</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>41.91511972439276</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>0.9748701914045408</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>582898.3494499672</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>61.81050408504172</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>4.132352941176471</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>4.323529411764706</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B28" t="n">
         <v>0.975</v>
       </c>
-      <c r="B28" t="n">
-        <v>50000</v>
-      </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
         <v>6</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>0.005478728860946249</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>44.06901323826599</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>0.9754989810405467</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>575597.1342390707</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>61.19934656357433</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>2.926470588235294</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>3.941176470588236</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B29" t="n">
         <v>0.975</v>
       </c>
-      <c r="B29" t="n">
-        <v>50000</v>
-      </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
         <v>7</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>0.003855692059646278</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>30.34616507084321</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>0.9742051058973866</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>545258.7456640134</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>56.32046915780683</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>2.514705882352941</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>3.367647058823529</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B30" t="n">
         <v>0.99</v>
       </c>
-      <c r="B30" t="n">
-        <v>50000</v>
-      </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
       </c>
       <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.01151985125527945</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>44.86948075393286</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>0.9907466204043556</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>189780.0331249668</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>39.81734987779859</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>3.617647058823529</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>4.485294117647059</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B31" t="n">
         <v>0.99</v>
       </c>
-      <c r="B31" t="n">
-        <v>50000</v>
-      </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
         <v>0.009819320776510017</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>39.92149533307791</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>0.9898388388042034</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>193976.5075087057</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>39.02626595608562</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>4.470588235294118</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>4.279411764705882</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B32" t="n">
         <v>0.99</v>
       </c>
-      <c r="B32" t="n">
-        <v>50000</v>
-      </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
         <v>3</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>0.0110671391048635</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>44.08425230236328</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>0.9911507885962012</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>206714.7597633834</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>42.60007937964767</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>4.970588235294118</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B33" t="n">
         <v>0.99</v>
       </c>
-      <c r="B33" t="n">
-        <v>50000</v>
-      </c>
       <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="inlineStr">
+        <v>50000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>4a</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>0.008100092534869966</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>32.72430847355771</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>0.9895915864479269</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>223845.03615066</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>43.0846361621139</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>5.735294117647059</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>3.963235294117647</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B34" t="n">
         <v>0.99</v>
       </c>
-      <c r="B34" t="n">
-        <v>50000</v>
-      </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
         <v>5</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>0.01036721401669938</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>41.10966924159869</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>0.9900592953396883</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>187568.3951444637</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>38.60321158763651</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>3.955882352941177</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>3.816176470588236</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B35" t="n">
         <v>0.99</v>
       </c>
-      <c r="B35" t="n">
-        <v>50000</v>
-      </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
         <v>6</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>0.01173551397947847</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>46.47395996432655</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>0.9902039898885856</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>186246.1868775846</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>38.97842275911223</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>2.838235294117647</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>3.654411764705882</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B36" t="n">
         <v>0.99</v>
       </c>
-      <c r="B36" t="n">
-        <v>50000</v>
-      </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
         <v>7</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>0.009205055399869504</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>36.34277616800786</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>0.9903689416103632</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>183311.5215127785</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>37.3242771207686</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>2.411764705882353</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>3.301470588235294</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B37" t="n">
         <v>0.99</v>
       </c>
-      <c r="B37" t="n">
-        <v>50000</v>
-      </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.02578188033888721</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>206.1470383466124</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>0.9918375150426767</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>490676.4674733194</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>53.69176049667283</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>3.852941176470588</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>5.191176470588236</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B38" t="n">
         <v>0.99</v>
       </c>
-      <c r="B38" t="n">
-        <v>50000</v>
-      </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
       </c>
       <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.01816911246243104</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>153.8890580717134</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>0.9888818776252424</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>510791.0525306091</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>53.0933170438427</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>4.397058823529412</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>3.801470588235294</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B39" t="n">
         <v>0.99</v>
       </c>
-      <c r="B39" t="n">
-        <v>50000</v>
-      </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
         <v>3</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>0.02553295352735108</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>207.6117539781979</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>0.9902288696373747</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>586200.8221850016</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>61.62241118912659</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>4.441176470588236</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>4.470588235294118</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B40" t="n">
         <v>0.99</v>
       </c>
-      <c r="B40" t="n">
-        <v>50000</v>
-      </c>
       <c r="C40" t="n">
-        <v>2</v>
-      </c>
-      <c r="D40" t="inlineStr">
+        <v>50000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>4a</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>0.006763808465536253</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>57.30026685178203</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>0.9825814477326127</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>761653.9912349017</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>72.74965435197767</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>6.088235294117647</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>3.161764705882353</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B41" t="n">
         <v>0.99</v>
       </c>
-      <c r="B41" t="n">
-        <v>50000</v>
-      </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
         <v>5</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>0.02324135253646244</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>189.0827924272101</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>0.9907314996292153</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>478306.1146167372</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>51.57056290589232</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>3.75</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>4.382352941176471</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B42" t="n">
         <v>0.99</v>
       </c>
-      <c r="B42" t="n">
-        <v>50000</v>
-      </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="n">
         <v>6</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>0.02134941930340996</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>177.4732925026456</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>0.990451172905311</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>463200.9181471854</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>49.46871979259461</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>3.058823529411764</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>4.073529411764706</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B43" t="n">
         <v>0.99</v>
       </c>
-      <c r="B43" t="n">
-        <v>50000</v>
-      </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>0.0166046709491245</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>135.9315487701758</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>0.989705113460596</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>449060.1441593507</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>46.582750840556</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>2.411764705882353</v>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>2.919117647058823</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B44" t="n">
         <v>0.995</v>
       </c>
-      <c r="B44" t="n">
-        <v>50000</v>
-      </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="n">
         <v>0.03593670666967445</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>141.6723469819758</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>0.9960094947119796</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>164206.7932714524</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>35.21161952440508</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>4.323529411764706</v>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>5.154411764705882</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B45" t="n">
         <v>0.995</v>
       </c>
-      <c r="B45" t="n">
-        <v>50000</v>
-      </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
         <v>0.0267875748320002</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>110.9820169880027</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>0.9949617390745632</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>163453.2575132043</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>32.95393569609884</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>3.794117647058823</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>3.529411764705882</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B46" t="n">
         <v>0.995</v>
       </c>
-      <c r="B46" t="n">
-        <v>50000</v>
-      </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
         <v>3</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>0.0327787473813537</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>134.941848134536</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>0.9955037417330674</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>180834.9913697836</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>36.95706577635978</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>4.838235294117647</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>4.669117647058823</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B47" t="n">
         <v>0.995</v>
       </c>
-      <c r="B47" t="n">
-        <v>50000</v>
-      </c>
       <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="inlineStr">
+        <v>50000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>4a</t>
         </is>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>0.02169292560348574</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>92.70142622919735</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>0.9945268805918753</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>196966.4664078324</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>37.31512088541007</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>5.647058823529412</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>4.205882352941177</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B48" t="n">
         <v>0.995</v>
       </c>
-      <c r="B48" t="n">
-        <v>50000</v>
-      </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
         <v>5</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>0.03186932204596902</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>127.5618676942631</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>0.9954311863377077</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>159925.9959435028</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>33.56110144536489</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>3.691176470588236</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>3.882352941176471</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B49" t="n">
         <v>0.995</v>
       </c>
-      <c r="B49" t="n">
-        <v>50000</v>
-      </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
         <v>6</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>0.02971703783646019</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>121.219512764423</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>0.9951996998511103</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>152435.9366349936</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>32.0735779056198</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>2.852941176470588</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>3.220588235294118</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B50" t="n">
         <v>0.995</v>
       </c>
-      <c r="B50" t="n">
-        <v>50000</v>
-      </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
         <v>7</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>0.02743960026477054</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>111.4261725187991</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>0.9954738636623162</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>155786.8242132982</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>31.93573648681838</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>2.852941176470588</v>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>3.338235294117647</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B51" t="n">
         <v>0.995</v>
       </c>
-      <c r="B51" t="n">
-        <v>50000</v>
-      </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
         <v>0.05592691629430097</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>451.4405688771849</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>0.9965495991338668</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>388974.4865352925</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>42.90904175407803</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>4.073529411764706</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>5.588235294117647</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B52" t="n">
         <v>0.995</v>
       </c>
-      <c r="B52" t="n">
-        <v>50000</v>
-      </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D52" t="n">
         <v>2</v>
       </c>
       <c r="E52" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" t="n">
         <v>0.03611702009290446</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>310.424656376547</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>0.9936742550014979</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>404821.3132888263</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>42.28787159729352</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>4.176470588235294</v>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>3.448529411764706</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B53" t="n">
         <v>0.995</v>
       </c>
-      <c r="B53" t="n">
-        <v>50000</v>
-      </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="n">
         <v>3</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>0.04378827183861166</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>365.4695739781499</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>0.993585551405711</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>454904.0962032747</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>47.89778003806156</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>4.661764705882353</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>3.786764705882353</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B54" t="n">
         <v>0.995</v>
       </c>
-      <c r="B54" t="n">
-        <v>50000</v>
-      </c>
       <c r="C54" t="n">
-        <v>2</v>
-      </c>
-      <c r="D54" t="inlineStr">
+        <v>50000</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>4a</t>
         </is>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>0.01661298797084965</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>145.5188500840981</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>0.9885183069938457</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>645334.6936450801</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>61.55065389892847</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>6.161764705882353</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B55" t="n">
         <v>0.995</v>
       </c>
-      <c r="B55" t="n">
-        <v>50000</v>
-      </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
         <v>5</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>0.05319487024634063</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>431.0769390000761</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>0.99600194984779</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>378641.316100103</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>41.64646449178831</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>3.735294117647059</v>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>5.058823529411764</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B56" t="n">
         <v>0.995</v>
       </c>
-      <c r="B56" t="n">
-        <v>50000</v>
-      </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
         <v>6</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>0.041566196658857</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>349.9764874964452</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>0.995222473195908</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>348032.73719215</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>37.23033168529155</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>2.867647058823529</v>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>3.948529411764706</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B57" t="n">
         <v>0.995</v>
       </c>
-      <c r="B57" t="n">
-        <v>50000</v>
-      </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
         <v>7</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>0.03590180986849529</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>297.236661616889</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>0.994826979616807</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>340557.0941794398</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>35.62498359050936</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>2.323529411764706</v>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>3.169117647058823</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B58" t="n">
         <v>0.95</v>
       </c>
-      <c r="B58" t="n">
-        <v>50000</v>
-      </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
         <v>4</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.9440250519395738</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>326542.7048134922</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>58.10984755570266</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>6.176470588235294</v>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>3.948529411764706</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B59" t="n">
         <v>0.95</v>
       </c>
-      <c r="B59" t="n">
-        <v>50000</v>
-      </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
         <v>4</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>1.799172943254695e-05</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>0.1146073164853241</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>0.9418237040193167</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>673179.0168541446</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>66.36187466945455</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>4.823529411764706</v>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>3.683823529411764</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B60" t="n">
         <v>0.975</v>
       </c>
-      <c r="B60" t="n">
-        <v>50000</v>
-      </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
         <v>4</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>2.335886312878168e-05</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>0.07227414150930839</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>0.9692588287786269</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>317299.8728837293</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>56.72386122246911</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>6.279411764705882</v>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>3.647058823529412</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B61" t="n">
         <v>0.975</v>
       </c>
-      <c r="B61" t="n">
-        <v>50000</v>
-      </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
         <v>4</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>0.0005905719136434786</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>4.203930876595704</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>0.966984779947465</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>659941.052891425</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>64.92389777894967</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>4.911764705882353</v>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>2.845588235294118</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B62" t="n">
         <v>0.99</v>
       </c>
-      <c r="B62" t="n">
-        <v>50000</v>
-      </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
         <v>4</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>0.002647513907639512</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>9.194324241362029</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>0.9851590929410776</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>279090.9492912593</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>50.27851166467973</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>6.088235294117647</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>2.264705882352941</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B63" t="n">
         <v>0.99</v>
       </c>
-      <c r="B63" t="n">
-        <v>50000</v>
-      </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
         <v>4</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>0.003203477893265805</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>27.15973042382349</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>0.9828556174633398</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>596313.0071913687</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>58.20874778242268</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>5.044117647058823</v>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>1.566176470588235</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B64" t="n">
         <v>0.995</v>
       </c>
-      <c r="B64" t="n">
-        <v>50000</v>
-      </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
         <v>4</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>0.008741037290562987</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>33.03745156545251</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>0.9915463849981159</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>229311.5711263431</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>41.4772250705995</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>5.676470588235294</v>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>1.448529411764706</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B65" t="n">
         <v>0.995</v>
       </c>
-      <c r="B65" t="n">
-        <v>50000</v>
-      </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
         <v>4</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>0.008093304101724787</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>74.65856434726345</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>0.9891769594677953</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>507158.8020688647</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>48.89476338403303</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>4.926470588235294</v>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>1.477941176470588</v>
       </c>
     </row>
